--- a/csv/Testcsv.xlsx
+++ b/csv/Testcsv.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Casa</t>
   </si>
@@ -62,38 +61,22 @@
   </si>
   <si>
     <t>12345678</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>123456789123</t>
-  </si>
-  <si>
-    <t>qwertyuiopasdfghjklñzxcvbnmqw</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1234567</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -121,10 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +413,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,36 +493,22 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G15" s="2"/>
